--- a/Git_BOSS통합버전+아웃룩일정추출/SLA_Report/SLA(정원님).xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/SLA_Report/SLA(정원님).xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5" documentId="8_{2443760D-00D5-4C66-9A32-4F1B2FBFABD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{446483C8-675D-4333-B6B5-A6D308D82AE3}"/>
   <bookViews>
-    <workbookView xWindow="-1692" yWindow="3024" windowWidth="27072" windowHeight="15576" activeTab="1" xr2:uid="{D8E780C8-AEA0-4F93-9E17-E53589443E6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17664" activeTab="1" xr2:uid="{D8E780C8-AEA0-4F93-9E17-E53589443E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2376,7 +2376,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2638,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6222561C-BC03-47FB-9558-FE6A542ADEA2}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3308,5 +3308,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>